--- a/DemoExcel/testing.xlsx
+++ b/DemoExcel/testing.xlsx
@@ -44,6 +44,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,13 +65,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,13 +120,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,7 +435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -462,10 +467,10 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>908055</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>36892</v>
       </c>
       <c r="E2" s="4"/>
@@ -475,13 +480,13 @@
       <c r="A3" s="3">
         <v>83001950</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>53296</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>37289</v>
       </c>
       <c r="E3" s="4"/>
@@ -494,10 +499,10 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>88836</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>37683</v>
       </c>
       <c r="E4" s="4"/>
@@ -507,13 +512,13 @@
       <c r="A5" s="3">
         <v>83003502</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>99</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>38081</v>
       </c>
       <c r="E5" s="4"/>
@@ -521,5 +526,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>